--- a/dist/checklists/extended/xlsx/tol/stx_seq_tol_extended.xlsx
+++ b/dist/checklists/extended/xlsx/tol/stx_seq_tol_extended.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="312">
   <si>
     <t>Study ID</t>
   </si>
@@ -106,12 +106,30 @@
     <t>Infraspecific Epithet</t>
   </si>
   <si>
+    <t>Collector Sample ID</t>
+  </si>
+  <si>
+    <t>Description Of Collection Method</t>
+  </si>
+  <si>
+    <t>Taxonomy ID</t>
+  </si>
+  <si>
     <t>Tissue (optional)</t>
   </si>
   <si>
     <t>Infraspecific Epithet (optional)</t>
   </si>
   <si>
+    <t>Collector Sample ID (optional)</t>
+  </si>
+  <si>
+    <t>Description Of Collection Method (optional)</t>
+  </si>
+  <si>
+    <t>Taxonomy ID (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the study.</t>
   </si>
   <si>
@@ -128,6 +146,24 @@
   </si>
   <si>
     <t>e.g. concolor</t>
+  </si>
+  <si>
+    <t>Unique name assigned to the sample by the COLLECTOR or COLLECTOR_AFFILIATION. Do not use spaces or special characters, other than hyphens and underscores ("-" and "_") i.e do not use #, !,^*, etc. Free text.</t>
+  </si>
+  <si>
+    <t>e.g. UDUK0000331</t>
+  </si>
+  <si>
+    <t>A detailed as possible description of the sample collection methods</t>
+  </si>
+  <si>
+    <t>e.g. Caught with fiber net within densely wooded area, and immediately placed into the collection container</t>
+  </si>
+  <si>
+    <t>A valid NCBI TAXON_ID to the species level ismandatory in order to submit data to public repositories. The species name in themanifest must be identical to that listed in the "current name" box in the T axonomy Browser for that species.</t>
+  </si>
+  <si>
+    <t>e.g. 458489</t>
   </si>
   <si>
     <t>Abdomen</t>
@@ -1406,7 +1442,7 @@
   <sheetData>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1414,7 +1450,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1422,7 +1458,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1430,7 +1466,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1438,7 +1474,7 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1446,7 +1482,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1454,7 +1490,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1462,7 +1498,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -1470,332 +1506,332 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1814,59 +1850,92 @@
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="102.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="185.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="96.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="208.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C4">
+  <conditionalFormatting sqref="A1:F4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="6">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -1875,6 +1944,15 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
+      <formula1>AND(ISNUMBER(F5+0), INT(F5+0)=F5+0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,233 +1996,233 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2275,53 +2353,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2392,170 +2470,170 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2670,98 +2748,98 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:10">
